--- a/load_excel/common_conversations.xlsx
+++ b/load_excel/common_conversations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E6325-4524-4C11-AA53-97CB46E1158A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E254687-F1CE-47EB-AB07-B07BB0E98DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5136" yWindow="72" windowWidth="17448" windowHeight="11880" tabRatio="677" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用对话" sheetId="2" r:id="rId1"/>
@@ -661,19 +661,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1347,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="19"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="5"/>
       <c r="I16" s="12"/>
     </row>
@@ -1360,7 +1360,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="19"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="5"/>
       <c r="I17" s="12"/>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="19"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="5"/>
       <c r="I18" s="12"/>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="5"/>
@@ -1420,7 +1420,7 @@
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="5"/>
@@ -1437,7 +1437,7 @@
       <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="5"/>
@@ -1454,7 +1454,7 @@
       <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="B24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
       <c r="F24" s="5"/>
@@ -1488,7 +1488,7 @@
       <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="5"/>
@@ -1505,7 +1505,7 @@
       <c r="B26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="5"/>
@@ -1522,7 +1522,7 @@
       <c r="B27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="5"/>
@@ -1541,7 +1541,7 @@
       <c r="B28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="11"/>
@@ -1560,7 +1560,7 @@
       <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="5"/>
@@ -1577,7 +1577,7 @@
       <c r="B30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="5"/>
@@ -1594,7 +1594,7 @@
       <c r="B31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="5"/>
@@ -1611,7 +1611,7 @@
       <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
       <c r="F32" s="5"/>
@@ -1628,7 +1628,7 @@
       <c r="B33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
       <c r="F33" s="5"/>
@@ -1645,7 +1645,7 @@
       <c r="B34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
       <c r="F34" s="5"/>
@@ -1662,7 +1662,7 @@
       <c r="B35" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="5"/>
@@ -1692,355 +1692,355 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="24"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="24"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="24"/>
     </row>
     <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="24"/>
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="24"/>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="24"/>
     </row>
     <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="24"/>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="24"/>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="24"/>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="24"/>
     </row>
     <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="24"/>
     </row>
     <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="24"/>
     </row>
     <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="24"/>
     </row>
     <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="24"/>
     </row>
     <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="24"/>
     </row>
     <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="24"/>
     </row>
     <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="24"/>
     </row>
     <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="24"/>
     </row>
     <row r="79" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="24"/>
     </row>
     <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="25"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="25"/>
+      <c r="C83" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A37:A79"/>
-    <mergeCell ref="C37:C79"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="A37:A79"/>
+    <mergeCell ref="C37:C79"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="C19:C27"/>
